--- a/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,94</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 16,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 16,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 14,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 18,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,66; 10,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 16,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 14,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 11,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 13,81</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>168,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>195,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,53%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 904,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 698,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 797,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 332,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,31; 190,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,56; 329,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,08; 355,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 266,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,18; 296,0</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,48; 9,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 8,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,84; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 8,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 9,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 9,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 8,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 8,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,26; 9,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,37; 199,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,97; 168,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,83; 245,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,14; 125,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,6; 144,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,07; 145,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,05; 137,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,01; 133,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,87; 162,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 6,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 6,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 7,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 5,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 5,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 6,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 5,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,43; 5,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 6,66</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,79%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,16; 131,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,13; 129,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,46; 161,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 66,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 74,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,82; 85,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,86; 77,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,92; 80,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,63; 101,87</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 6,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 6,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,27; 10,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 8,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 3,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,65; 38,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 6,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 4,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,16; 31,13</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>182,91%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,6; 155,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,41; 166,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,88; 242,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,68; 139,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,04; 53,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,99; 650,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,35; 125,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 77,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,67; 568,07</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 6,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 3,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 9,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 7,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 6,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,74; 10,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 6,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 4,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,97; 9,26</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,51%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,77%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,19; 140,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 73,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,44; 188,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,61; 131,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,27; 112,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,99; 188,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,59; 117,39</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,98; 80,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,39; 165,24</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 5,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 4,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 7,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 5,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 4,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 16,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 5,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 4,32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,02; 13,35</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,54%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,6%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,06%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,8%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,76; 112,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,47; 90,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,67; 151,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,68; 80,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,33; 62,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,85; 219,74</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,78; 84,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,61; 66,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,73; 191,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>7,62</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 16,54</t>
+          <t>3,16; 9,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 16,66</t>
+          <t>2,91; 8,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 14,42</t>
+          <t>5,02; 10,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 18,46</t>
+          <t>2,2; 9,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 10,14</t>
+          <t>1,85; 8,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 16,2</t>
+          <t>4,49; 9,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 14,6</t>
+          <t>3,38; 7,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 11,62</t>
+          <t>3,39; 7,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,81</t>
+          <t>5,51; 9,66</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>168,83%</t>
+          <t>103,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>195,85%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>150,15%</t>
+          <t>134,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>62,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>112,39%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>123,7%</t>
+          <t>81,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>132,53%</t>
+          <t>107,07%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 904,56</t>
+          <t>40,1; 200,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 698,06</t>
+          <t>38,33; 187,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 797,57</t>
+          <t>66,75; 232,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 332,76</t>
+          <t>21,36; 129,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 190,39</t>
+          <t>18,63; 137,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 329,48</t>
+          <t>45,72; 152,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,08; 355,53</t>
+          <t>40,65; 130,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 266,47</t>
+          <t>41,46; 127,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,18; 296,0</t>
+          <t>67,05; 161,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 9,46</t>
+          <t>1,74; 6,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 8,3</t>
+          <t>1,42; 6,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,43</t>
+          <t>-1,21; 6,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 8,46</t>
+          <t>-0,44; 5,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,75</t>
+          <t>0,01; 5,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,75</t>
+          <t>1,72; 6,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,25</t>
+          <t>1,44; 5,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,28</t>
+          <t>1,43; 5,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 9,68</t>
+          <t>-0,05; 5,9</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>82,08%</t>
+          <t>63,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>138,93%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76,02%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>105,94%</t>
+          <t>48,23%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,37; 199,67</t>
+          <t>22,16; 131,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 168,98</t>
+          <t>19,13; 129,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,83; 245,87</t>
+          <t>-15,29; 123,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 125,4</t>
+          <t>-5,07; 66,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,6; 144,65</t>
+          <t>0,03; 74,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,07; 145,29</t>
+          <t>15,78; 86,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,05; 137,39</t>
+          <t>16,86; 77,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,01; 133,19</t>
+          <t>16,92; 80,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,87; 162,54</t>
+          <t>0,45; 87,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>23,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>16,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,5</t>
+          <t>0,87; 6,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,08</t>
+          <t>1,27; 6,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 7,75</t>
+          <t>3,97; 9,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,11</t>
+          <t>2,04; 8,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,75</t>
+          <t>-2,32; 3,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,64</t>
+          <t>2,91; 52,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,15</t>
+          <t>2,51; 6,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,28</t>
+          <t>0,26; 4,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,66</t>
+          <t>4,71; 44,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>122,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,79%</t>
+          <t>315,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>64,79%</t>
+          <t>253,19%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,16; 131,8</t>
+          <t>11,6; 155,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,13; 129,68</t>
+          <t>19,41; 166,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37,46; 161,39</t>
+          <t>55,8; 234,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 66,74</t>
+          <t>22,68; 139,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 74,74</t>
+          <t>-27,04; 53,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,82; 85,26</t>
+          <t>38,08; 907,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,86; 77,07</t>
+          <t>31,35; 125,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,92; 80,47</t>
+          <t>3,94; 77,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,63; 101,87</t>
+          <t>71,56; 842,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,66</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,81</t>
+          <t>6,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,66</t>
+          <t>1,99; 6,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,65</t>
+          <t>-0,63; 3,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 10,18</t>
+          <t>4,03; 9,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,52</t>
+          <t>2,32; 7,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,16</t>
+          <t>1,33; 6,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 38,4</t>
+          <t>4,25; 9,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,82</t>
+          <t>2,67; 6,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,21</t>
+          <t>1,09; 4,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 31,13</t>
+          <t>5,08; 8,66</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>72,84%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>127,32%</t>
+          <t>106,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>211,46%</t>
+          <t>109,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>69,42%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>182,91%</t>
+          <t>108,61%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,6; 155,41</t>
+          <t>28,19; 140,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,41; 166,38</t>
+          <t>-9,42; 73,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,88; 242,64</t>
+          <t>56,01; 183,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,68; 139,18</t>
+          <t>26,61; 131,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 53,99</t>
+          <t>16,27; 112,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,99; 650,77</t>
+          <t>53,96; 175,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,35; 125,42</t>
+          <t>37,59; 117,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,94; 77,74</t>
+          <t>14,98; 80,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>76,67; 568,07</t>
+          <t>69,9; 154,69</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>8,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,98</t>
+          <t>3,18; 5,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,69</t>
+          <t>2,29; 4,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,34</t>
+          <t>2,74; 7,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,57</t>
+          <t>2,86; 5,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,4</t>
+          <t>1,64; 4,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,51</t>
+          <t>5,39; 24,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,34</t>
+          <t>3,52; 5,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,59</t>
+          <t>2,32; 4,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,26</t>
+          <t>5,18; 18,48</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>111,51%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>55,6%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>121,51%</t>
+          <t>134,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>117,77%</t>
+          <t>119,62%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>28,19; 140,15</t>
+          <t>49,76; 112,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 73,25</t>
+          <t>35,47; 90,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>59,44; 188,86</t>
+          <t>50,14; 133,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,61; 131,08</t>
+          <t>32,68; 80,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,27; 112,01</t>
+          <t>18,33; 62,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>68,99; 188,71</t>
+          <t>66,64; 330,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>37,59; 117,39</t>
+          <t>47,78; 84,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,98; 80,98</t>
+          <t>31,61; 66,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>79,39; 165,24</t>
+          <t>73,92; 267,78</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>8,69</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>4,43</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>7,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 5,91</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 4,75</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,23; 7,92</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 5,77</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 4,56</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>5,79; 16,76</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>3,52; 5,39</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 4,32</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>6,02; 13,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>76,77%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>61,24%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>113,54%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>55,6%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>39,36%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>110,06%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>64,45%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>48,55%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>112,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>49,76; 112,69</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>35,47; 90,41</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>81,67; 151,61</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>32,68; 80,25</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>18,33; 62,5</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>70,85; 219,74</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>47,78; 84,04</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>31,61; 66,92</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>83,73; 191,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,37</t>
+          <t>2,97; 9,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,8</t>
+          <t>2,72; 8,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,96</t>
+          <t>4,82; 10,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 9,0</t>
+          <t>2,04; 8,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 8,92</t>
+          <t>2,25; 9,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,88</t>
+          <t>4,48; 10,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,98</t>
+          <t>3,75; 8,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,9</t>
+          <t>3,32; 7,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,66</t>
+          <t>5,61; 9,9</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,1; 200,55</t>
+          <t>38,38; 192,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,33; 187,47</t>
+          <t>37,8; 187,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,75; 232,44</t>
+          <t>64,86; 230,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 129,18</t>
+          <t>20,72; 124,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 137,82</t>
+          <t>23,31; 137,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,72; 152,01</t>
+          <t>43,4; 155,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,65; 130,54</t>
+          <t>45,15; 133,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,46; 127,22</t>
+          <t>40,13; 125,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>67,05; 161,27</t>
+          <t>68,14; 159,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,5</t>
+          <t>1,87; 6,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,08</t>
+          <t>1,29; 6,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 6,55</t>
+          <t>-1,75; 6,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,11</t>
+          <t>-0,27; 5,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,75</t>
+          <t>-0,11; 5,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,76</t>
+          <t>1,95; 7,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,15</t>
+          <t>1,44; 5,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,28</t>
+          <t>1,52; 5,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,9</t>
+          <t>-0,17; 5,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 131,8</t>
+          <t>24,56; 139,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 129,68</t>
+          <t>16,25; 129,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 123,92</t>
+          <t>-20,87; 128,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 66,74</t>
+          <t>-2,98; 69,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 74,74</t>
+          <t>-0,68; 78,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,78; 86,35</t>
+          <t>18,29; 90,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,86; 77,07</t>
+          <t>17,65; 80,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 80,47</t>
+          <t>17,63; 81,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 87,79</t>
+          <t>-1,24; 80,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,66</t>
+          <t>0,98; 6,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,65</t>
+          <t>1,24; 6,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 9,81</t>
+          <t>3,87; 9,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,52</t>
+          <t>2,35; 8,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,16</t>
+          <t>-2,34; 3,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 52,64</t>
+          <t>2,89; 56,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,82</t>
+          <t>2,46; 6,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,21</t>
+          <t>0,15; 4,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 44,02</t>
+          <t>4,57; 42,96</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,6; 155,41</t>
+          <t>13,41; 161,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,41; 166,38</t>
+          <t>12,72; 153,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,8; 234,4</t>
+          <t>50,8; 223,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 139,18</t>
+          <t>27,44; 144,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 53,99</t>
+          <t>-27,3; 51,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,08; 907,08</t>
+          <t>35,82; 895,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,35; 125,42</t>
+          <t>32,98; 118,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 77,74</t>
+          <t>0,89; 78,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>71,56; 842,14</t>
+          <t>65,85; 690,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,98</t>
+          <t>1,75; 6,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,69</t>
+          <t>-0,64; 3,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,08</t>
+          <t>4,23; 8,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,57</t>
+          <t>2,26; 7,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,4</t>
+          <t>1,37; 6,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,94</t>
+          <t>4,2; 9,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,34</t>
+          <t>2,71; 6,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,59</t>
+          <t>0,88; 4,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,66</t>
+          <t>5,23; 8,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,19; 140,15</t>
+          <t>26,7; 137,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 73,25</t>
+          <t>-9,87; 73,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,01; 183,6</t>
+          <t>58,05; 177,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,61; 131,08</t>
+          <t>27,06; 126,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,27; 112,01</t>
+          <t>14,5; 111,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,96; 175,22</t>
+          <t>51,04; 175,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,59; 117,39</t>
+          <t>37,13; 115,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,98; 80,98</t>
+          <t>11,41; 80,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>69,9; 154,69</t>
+          <t>74,73; 158,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,91</t>
+          <t>3,06; 5,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,75</t>
+          <t>2,3; 4,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,09</t>
+          <t>3,37; 7,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,77</t>
+          <t>2,82; 5,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,56</t>
+          <t>1,64; 4,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,39; 24,57</t>
+          <t>5,5; 26,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,39</t>
+          <t>3,45; 5,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,32</t>
+          <t>2,36; 4,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,48</t>
+          <t>5,37; 17,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49,76; 112,69</t>
+          <t>47,88; 110,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>35,47; 90,41</t>
+          <t>36,33; 92,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>50,14; 133,61</t>
+          <t>56,76; 137,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>32,68; 80,25</t>
+          <t>32,37; 78,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>18,33; 62,5</t>
+          <t>19,12; 62,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>66,64; 330,05</t>
+          <t>68,62; 347,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>47,78; 84,04</t>
+          <t>46,58; 83,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,61; 66,92</t>
+          <t>31,85; 67,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>73,92; 267,78</t>
+          <t>76,44; 274,75</t>
         </is>
       </c>
     </row>
